--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2027,28 +2027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.1481641541293</v>
+        <v>241.4111465219208</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.8549098885438</v>
+        <v>330.3093809792611</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.199985155404</v>
+        <v>298.7851172508264</v>
       </c>
       <c r="AD2" t="n">
-        <v>181148.1641541293</v>
+        <v>241411.1465219208</v>
       </c>
       <c r="AE2" t="n">
-        <v>247854.9098885438</v>
+        <v>330309.3809792611</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.300725800056264e-06</v>
+        <v>3.316874512815988e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.21614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>224199.985155404</v>
+        <v>298785.1172508264</v>
       </c>
     </row>
     <row r="3">
@@ -2133,28 +2133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.4767770226228</v>
+        <v>188.1916429409514</v>
       </c>
       <c r="AB3" t="n">
-        <v>186.7335472527363</v>
+        <v>257.4921083010223</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.9119595851673</v>
+        <v>232.9174228772915</v>
       </c>
       <c r="AD3" t="n">
-        <v>136476.7770226228</v>
+        <v>188191.6429409514</v>
       </c>
       <c r="AE3" t="n">
-        <v>186733.5472527363</v>
+        <v>257492.1083010222</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.82289868449197e-06</v>
+        <v>4.069672578376885e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.76822916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>168911.9595851673</v>
+        <v>232917.4228772915</v>
       </c>
     </row>
     <row r="4">
@@ -2239,28 +2239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.2400597294153</v>
+        <v>173.3216473608116</v>
       </c>
       <c r="AB4" t="n">
-        <v>178.2001955076258</v>
+        <v>237.1463243303796</v>
       </c>
       <c r="AC4" t="n">
-        <v>161.1930189539731</v>
+        <v>214.5134119733133</v>
       </c>
       <c r="AD4" t="n">
-        <v>130240.0597294153</v>
+        <v>173321.6473608116</v>
       </c>
       <c r="AE4" t="n">
-        <v>178200.1955076258</v>
+        <v>237146.3243303796</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.018290451315594e-06</v>
+        <v>4.351361935437823e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.06510416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>161193.0189539731</v>
+        <v>214513.4119733133</v>
       </c>
     </row>
     <row r="5">
@@ -2345,28 +2345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>119.5508408657868</v>
+        <v>171.1803659295439</v>
       </c>
       <c r="AB5" t="n">
-        <v>163.5747346833626</v>
+        <v>234.2165286094509</v>
       </c>
       <c r="AC5" t="n">
-        <v>147.9633915838097</v>
+        <v>211.8632318439951</v>
       </c>
       <c r="AD5" t="n">
-        <v>119550.8408657868</v>
+        <v>171180.3659295439</v>
       </c>
       <c r="AE5" t="n">
-        <v>163574.7346833626</v>
+        <v>234216.5286094509</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.059511555151518e-06</v>
+        <v>4.41078893395289e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.934895833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>147963.3915838097</v>
+        <v>211863.2318439951</v>
       </c>
     </row>
   </sheetData>
@@ -2642,28 +2642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.8638427276423</v>
+        <v>197.3683840576598</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.9455887953345</v>
+        <v>270.0481303461417</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.7676238296701</v>
+        <v>244.2751158009163</v>
       </c>
       <c r="AD2" t="n">
-        <v>146863.8427276423</v>
+        <v>197368.3840576598</v>
       </c>
       <c r="AE2" t="n">
-        <v>200945.5887953345</v>
+        <v>270048.1303461417</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.656787127098317e-06</v>
+        <v>3.889436408522232e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.8359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>181767.6238296701</v>
+        <v>244275.1158009163</v>
       </c>
     </row>
     <row r="3">
@@ -2748,28 +2748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.1836001934678</v>
+        <v>167.1854666224617</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.281724495295</v>
+        <v>228.750531134985</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.9348371049219</v>
+        <v>206.9189014969148</v>
       </c>
       <c r="AD3" t="n">
-        <v>125183.6001934677</v>
+        <v>167185.4666224617</v>
       </c>
       <c r="AE3" t="n">
-        <v>171281.724495295</v>
+        <v>228750.531134985</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.129140253396143e-06</v>
+        <v>4.580943615992256e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.05208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>154934.8371049219</v>
+        <v>206918.9014969148</v>
       </c>
     </row>
     <row r="4">
@@ -2854,28 +2854,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.8656619722155</v>
+        <v>155.9527797472301</v>
       </c>
       <c r="AB4" t="n">
-        <v>155.7960221087909</v>
+        <v>213.3814734011301</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.9270684198609</v>
+        <v>193.0166450625661</v>
       </c>
       <c r="AD4" t="n">
-        <v>113865.6619722155</v>
+        <v>155952.7797472301</v>
       </c>
       <c r="AE4" t="n">
-        <v>155796.0221087909</v>
+        <v>213381.4734011301</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.235336401512789e-06</v>
+        <v>4.736410781847136e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.713541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>140927.0684198609</v>
+        <v>193016.6450625662</v>
       </c>
     </row>
   </sheetData>
@@ -3151,28 +3151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.0481180412791</v>
+        <v>138.8845617124778</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.8902489154775</v>
+        <v>190.027984489358</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.825635685692</v>
+        <v>171.8919803556986</v>
       </c>
       <c r="AD2" t="n">
-        <v>100048.1180412791</v>
+        <v>138884.5617124779</v>
       </c>
       <c r="AE2" t="n">
-        <v>136890.2489154775</v>
+        <v>190027.984489358</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.622719982085635e-06</v>
+        <v>5.60479497517437e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>123825.635685692</v>
+        <v>171891.9803556986</v>
       </c>
     </row>
   </sheetData>
@@ -3448,28 +3448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.2475476390169</v>
+        <v>156.2696238517187</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.0550231594863</v>
+        <v>213.8149934830667</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.8750349843157</v>
+        <v>193.408790596332</v>
       </c>
       <c r="AD2" t="n">
-        <v>116247.5476390169</v>
+        <v>156269.6238517187</v>
       </c>
       <c r="AE2" t="n">
-        <v>159055.0231594863</v>
+        <v>213814.9934830667</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.341447406798156e-06</v>
+        <v>5.049909311751626e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.0390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>143875.0349843157</v>
+        <v>193408.7905963321</v>
       </c>
     </row>
     <row r="3">
@@ -3554,28 +3554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.1197374592215</v>
+        <v>145.2270650179438</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.8294623471603</v>
+        <v>198.7060773233899</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.1025803267044</v>
+        <v>179.7418481894331</v>
       </c>
       <c r="AD3" t="n">
-        <v>105119.7374592214</v>
+        <v>145227.0650179438</v>
       </c>
       <c r="AE3" t="n">
-        <v>143829.4623471603</v>
+        <v>198706.0773233899</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.49682759817204e-06</v>
+        <v>5.284734457789941e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.596354166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>130102.5803267045</v>
+        <v>179741.848189433</v>
       </c>
     </row>
   </sheetData>
@@ -3851,28 +3851,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.34806382132511</v>
+        <v>141.5302519350282</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.8276714968673</v>
+        <v>193.6479345714645</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.2462235505403</v>
+        <v>175.1664474826018</v>
       </c>
       <c r="AD2" t="n">
-        <v>96348.06382132511</v>
+        <v>141530.2519350282</v>
       </c>
       <c r="AE2" t="n">
-        <v>131827.6714968673</v>
+        <v>193647.9345714645</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.67384765625303e-06</v>
+        <v>5.806472099055972e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>119246.2235505403</v>
+        <v>175166.4474826018</v>
       </c>
     </row>
   </sheetData>
@@ -4148,28 +4148,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.1982461606847</v>
+        <v>209.9580907293054</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.8220637278895</v>
+        <v>287.2739224329373</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.0334316809487</v>
+        <v>259.8569024675047</v>
       </c>
       <c r="AD2" t="n">
-        <v>159198.2461606847</v>
+        <v>209958.0907293053</v>
       </c>
       <c r="AE2" t="n">
-        <v>217822.0637278895</v>
+        <v>287273.9224329373</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.567617635391869e-06</v>
+        <v>3.743294545797423e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.13541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>197033.4316809487</v>
+        <v>259856.9024675047</v>
       </c>
     </row>
     <row r="3">
@@ -4254,28 +4254,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.0047943464431</v>
+        <v>170.2904562626236</v>
       </c>
       <c r="AB3" t="n">
-        <v>175.1418067976959</v>
+        <v>232.9989149431275</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.4265185700424</v>
+        <v>210.7618255170537</v>
       </c>
       <c r="AD3" t="n">
-        <v>128004.7943464431</v>
+        <v>170290.4562626236</v>
       </c>
       <c r="AE3" t="n">
-        <v>175141.8067976959</v>
+        <v>232998.9149431275</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.053746604561999e-06</v>
+        <v>4.452015304591771e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.20833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>158426.5185700424</v>
+        <v>210761.8255170537</v>
       </c>
     </row>
     <row r="4">
@@ -4360,28 +4360,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.1202363236013</v>
+        <v>157.4911495858023</v>
       </c>
       <c r="AB4" t="n">
-        <v>157.5125860842701</v>
+        <v>215.486338882351</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.4798059387337</v>
+        <v>194.9206251364573</v>
       </c>
       <c r="AD4" t="n">
-        <v>115120.2363236013</v>
+        <v>157491.1495858023</v>
       </c>
       <c r="AE4" t="n">
-        <v>157512.5860842702</v>
+        <v>215486.338882351</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.200099780808345e-06</v>
+        <v>4.665381593579524e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.739583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>142479.8059387337</v>
+        <v>194920.6251364573</v>
       </c>
     </row>
     <row r="5">
@@ -4466,28 +4466,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>115.2748510729574</v>
+        <v>157.6457643351584</v>
       </c>
       <c r="AB5" t="n">
-        <v>157.7241368054604</v>
+        <v>215.6978896035413</v>
       </c>
       <c r="AC5" t="n">
-        <v>142.6711665560069</v>
+        <v>195.1119857537305</v>
       </c>
       <c r="AD5" t="n">
-        <v>115274.8510729574</v>
+        <v>157645.7643351585</v>
       </c>
       <c r="AE5" t="n">
-        <v>157724.1368054604</v>
+        <v>215697.8896035413</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.198783655122677e-06</v>
+        <v>4.663462831987907e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.739583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>142671.1665560069</v>
+        <v>195111.9857537305</v>
       </c>
     </row>
   </sheetData>
@@ -4763,28 +4763,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.0915761151679</v>
+        <v>139.1831346743658</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.6861984031784</v>
+        <v>190.4365051879223</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.3547436784274</v>
+        <v>172.2615124121545</v>
       </c>
       <c r="AD2" t="n">
-        <v>102091.5761151679</v>
+        <v>139183.1346743658</v>
       </c>
       <c r="AE2" t="n">
-        <v>139686.1984031784</v>
+        <v>190436.5051879223</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.631565835124138e-06</v>
+        <v>5.818621514250942e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.2734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>126354.7436784274</v>
+        <v>172261.5124121545</v>
       </c>
     </row>
   </sheetData>
@@ -5060,28 +5060,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.2028703683762</v>
+        <v>176.5168064456413</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.0445790325163</v>
+        <v>241.5180819507117</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.4340086828023</v>
+        <v>218.4679351821628</v>
       </c>
       <c r="AD2" t="n">
-        <v>127202.8703683762</v>
+        <v>176516.8064456413</v>
       </c>
       <c r="AE2" t="n">
-        <v>174044.5790325163</v>
+        <v>241518.0819507117</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.966518152960193e-06</v>
+        <v>4.40481429858403e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.92447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>157434.0086828023</v>
+        <v>218467.9351821628</v>
       </c>
     </row>
     <row r="3">
@@ -5166,28 +5166,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.4399000940368</v>
+        <v>150.6059642039008</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.7404994562359</v>
+        <v>206.0657244898968</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.4494763502844</v>
+        <v>186.3991009597005</v>
       </c>
       <c r="AD3" t="n">
-        <v>109439.9000940368</v>
+        <v>150605.9642039008</v>
       </c>
       <c r="AE3" t="n">
-        <v>149740.4994562359</v>
+        <v>206065.7244898968</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.372433150181774e-06</v>
+        <v>5.007534420821323e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>135449.4763502844</v>
+        <v>186399.1009597006</v>
       </c>
     </row>
     <row r="4">
@@ -5272,28 +5272,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.5986036391273</v>
+        <v>150.7646677489913</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.9576446481348</v>
+        <v>206.2828696817957</v>
       </c>
       <c r="AC4" t="n">
-        <v>135.6458975098338</v>
+        <v>186.5955221192499</v>
       </c>
       <c r="AD4" t="n">
-        <v>109598.6036391273</v>
+        <v>150764.6677489913</v>
       </c>
       <c r="AE4" t="n">
-        <v>149957.6446481348</v>
+        <v>206282.8696817957</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.37193558337959e-06</v>
+        <v>5.006795612139982e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>135645.8975098338</v>
+        <v>186595.5221192499</v>
       </c>
     </row>
   </sheetData>
@@ -5569,28 +5569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.1310529946005</v>
+        <v>193.28208972448</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.8382212035287</v>
+        <v>264.457082164905</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.1476962325891</v>
+        <v>239.2176694110097</v>
       </c>
       <c r="AD2" t="n">
-        <v>143131.0529946004</v>
+        <v>193282.08972448</v>
       </c>
       <c r="AE2" t="n">
-        <v>195838.2212035287</v>
+        <v>264457.082164905</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.749665263990666e-06</v>
+        <v>4.043224607593223e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.53645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>177147.6962325891</v>
+        <v>239217.6694110097</v>
       </c>
     </row>
     <row r="3">
@@ -5675,28 +5675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.7529030946035</v>
+        <v>155.5454337028364</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.6417404378715</v>
+        <v>212.8241245723518</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.7875111750784</v>
+        <v>192.5124888237623</v>
       </c>
       <c r="AD3" t="n">
-        <v>113752.9030946034</v>
+        <v>155545.4337028364</v>
       </c>
       <c r="AE3" t="n">
-        <v>155641.7404378715</v>
+        <v>212824.1245723518</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.230136989197619e-06</v>
+        <v>4.749730642364196e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.830729166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>140787.5111750784</v>
+        <v>192512.4888237623</v>
       </c>
     </row>
     <row r="4">
@@ -5781,28 +5781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.635818799234</v>
+        <v>154.4283494074669</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.1132964226668</v>
+        <v>211.2956805571471</v>
       </c>
       <c r="AC4" t="n">
-        <v>139.4049397114997</v>
+        <v>191.1299173601836</v>
       </c>
       <c r="AD4" t="n">
-        <v>112635.818799234</v>
+        <v>154428.3494074669</v>
       </c>
       <c r="AE4" t="n">
-        <v>154113.2964226668</v>
+        <v>211295.6805571471</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.272039018299682e-06</v>
+        <v>4.811345165918115e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.700520833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>139404.9397114997</v>
+        <v>191129.9173601836</v>
       </c>
     </row>
   </sheetData>
@@ -6078,28 +6078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.8393841515752</v>
+        <v>227.8280097553071</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.6452499471231</v>
+        <v>311.724334009488</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.7282296013684</v>
+        <v>281.9738010795654</v>
       </c>
       <c r="AD2" t="n">
-        <v>167839.3841515752</v>
+        <v>227828.0097553071</v>
       </c>
       <c r="AE2" t="n">
-        <v>229645.2499471231</v>
+        <v>311724.334009488</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.385067152452197e-06</v>
+        <v>3.450649582718675e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.83854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>207728.2296013684</v>
+        <v>281973.8010795654</v>
       </c>
     </row>
     <row r="3">
@@ -6184,28 +6184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.7093110683282</v>
+        <v>185.1159414637309</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.9469782420913</v>
+        <v>253.2837978495187</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.486775406414</v>
+        <v>229.1107476688773</v>
       </c>
       <c r="AD3" t="n">
-        <v>133709.3110683282</v>
+        <v>185115.9414637309</v>
       </c>
       <c r="AE3" t="n">
-        <v>182946.9782420913</v>
+        <v>253283.7978495187</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.89369764541085e-06</v>
+        <v>4.186522195982944e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.5859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>165486.775406414</v>
+        <v>229110.7476688773</v>
       </c>
     </row>
     <row r="4">
@@ -6290,28 +6290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.9785784639096</v>
+        <v>170.2998680047407</v>
       </c>
       <c r="AB4" t="n">
-        <v>162.7917400186792</v>
+        <v>233.011792503909</v>
       </c>
       <c r="AC4" t="n">
-        <v>147.2551248309835</v>
+        <v>210.773474061508</v>
       </c>
       <c r="AD4" t="n">
-        <v>118978.5784639096</v>
+        <v>170299.8680047407</v>
       </c>
       <c r="AE4" t="n">
-        <v>162791.7400186792</v>
+        <v>233011.792503909</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.09027493140722e-06</v>
+        <v>4.470924808797404e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.908854166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>147255.1248309835</v>
+        <v>210773.474061508</v>
       </c>
     </row>
     <row r="5">
@@ -6396,28 +6396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.287015814373</v>
+        <v>161.1969918560183</v>
       </c>
       <c r="AB5" t="n">
-        <v>161.8455134919928</v>
+        <v>220.5568357666803</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.3992048359665</v>
+        <v>199.5072009146349</v>
       </c>
       <c r="AD5" t="n">
-        <v>118287.015814373</v>
+        <v>161196.9918560183</v>
       </c>
       <c r="AE5" t="n">
-        <v>161845.5134919928</v>
+        <v>220556.8357666803</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.111732559752965e-06</v>
+        <v>4.501969115546271e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.84375</v>
       </c>
       <c r="AH5" t="n">
-        <v>146399.2048359665</v>
+        <v>199507.2009146349</v>
       </c>
     </row>
   </sheetData>
@@ -6693,28 +6693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.0023411309902</v>
+        <v>160.3961359509638</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.1924972649994</v>
+        <v>219.4610693861163</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.5221957716905</v>
+        <v>198.5160129395137</v>
       </c>
       <c r="AD2" t="n">
-        <v>120002.3411309902</v>
+        <v>160396.1359509637</v>
       </c>
       <c r="AE2" t="n">
-        <v>164192.4972649994</v>
+        <v>219461.0693861163</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.204430612180089e-06</v>
+        <v>4.812044147052992e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.33854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>148522.1957716905</v>
+        <v>198516.0129395137</v>
       </c>
     </row>
     <row r="3">
@@ -6799,28 +6799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.4945165063647</v>
+        <v>146.9735626723588</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.7104956904318</v>
+        <v>201.0957124641979</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.8040904877416</v>
+        <v>181.903419906277</v>
       </c>
       <c r="AD3" t="n">
-        <v>106494.5165063647</v>
+        <v>146973.5626723588</v>
       </c>
       <c r="AE3" t="n">
-        <v>145710.4956904318</v>
+        <v>201095.7124641979</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.453827008600358e-06</v>
+        <v>5.186558878353037e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.596354166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>131804.0904877416</v>
+        <v>181903.419906277</v>
       </c>
     </row>
   </sheetData>
@@ -7096,28 +7096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.9659243711714</v>
+        <v>141.256884331573</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.5142761436787</v>
+        <v>193.2739009562899</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.1992294380799</v>
+        <v>174.8281111106999</v>
       </c>
       <c r="AD2" t="n">
-        <v>101965.9243711714</v>
+        <v>141256.884331573</v>
       </c>
       <c r="AE2" t="n">
-        <v>139514.2761436787</v>
+        <v>193273.9009562898</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.573243510954458e-06</v>
+        <v>5.480450617889127e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.661458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>126199.2294380799</v>
+        <v>174828.1111106999</v>
       </c>
     </row>
     <row r="3">
@@ -7202,28 +7202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.0733192368099</v>
+        <v>141.3642791972115</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.6612185367723</v>
+        <v>193.4208433493834</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.3321478554116</v>
+        <v>174.9610295280316</v>
       </c>
       <c r="AD3" t="n">
-        <v>102073.3192368099</v>
+        <v>141364.2791972116</v>
       </c>
       <c r="AE3" t="n">
-        <v>139661.2185367723</v>
+        <v>193420.8433493834</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.572156419373873e-06</v>
+        <v>5.478783294711669e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.661458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>126332.1478554116</v>
+        <v>174961.0295280316</v>
       </c>
     </row>
   </sheetData>
@@ -12144,28 +12144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.31521604423826</v>
+        <v>136.6565164946948</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.5192159528868</v>
+        <v>186.979474727971</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.6808907812846</v>
+        <v>169.1344160873271</v>
       </c>
       <c r="AD2" t="n">
-        <v>98315.21604423826</v>
+        <v>136656.5164946948</v>
       </c>
       <c r="AE2" t="n">
-        <v>134519.2159528868</v>
+        <v>186979.474727971</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.651374049036879e-06</v>
+        <v>5.705199926932244e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.778645833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>121680.8907812846</v>
+        <v>169134.4160873271</v>
       </c>
     </row>
   </sheetData>
@@ -12441,28 +12441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.79875355841354</v>
+        <v>143.4639496588295</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.5490574288364</v>
+        <v>196.2937051058909</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.5170070356705</v>
+        <v>177.5597093905857</v>
       </c>
       <c r="AD2" t="n">
-        <v>99798.75355841353</v>
+        <v>143463.9496588295</v>
       </c>
       <c r="AE2" t="n">
-        <v>136549.0574288364</v>
+        <v>196293.7051058909</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.551939324894084e-06</v>
+        <v>5.788510743983675e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.79427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>123517.0070356705</v>
+        <v>177559.7093905857</v>
       </c>
     </row>
   </sheetData>
@@ -12738,28 +12738,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.8299974381495</v>
+        <v>180.316065142806</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.9533272420161</v>
+        <v>246.7163953116341</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.8244482912609</v>
+        <v>223.170128811799</v>
       </c>
       <c r="AD2" t="n">
-        <v>138829.9974381495</v>
+        <v>180316.065142806</v>
       </c>
       <c r="AE2" t="n">
-        <v>189953.3272420161</v>
+        <v>246716.3953116341</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.870101390774381e-06</v>
+        <v>4.240232702469438e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>171824.4482912609</v>
+        <v>223170.128811799</v>
       </c>
     </row>
     <row r="3">
@@ -12844,28 +12844,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.5900378768967</v>
+        <v>153.0760160730021</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.6824128281276</v>
+        <v>209.4453584281972</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.1106176389651</v>
+        <v>189.4561873782767</v>
       </c>
       <c r="AD3" t="n">
-        <v>111590.0378768967</v>
+        <v>153076.0160730021</v>
       </c>
       <c r="AE3" t="n">
-        <v>152682.4128281276</v>
+        <v>209445.3584281972</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.293772473583065e-06</v>
+        <v>4.866156227746471e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.7265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>138110.6176389651</v>
+        <v>189456.1873782767</v>
       </c>
     </row>
     <row r="4">
@@ -12950,28 +12950,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.324186797916</v>
+        <v>152.8101649940214</v>
       </c>
       <c r="AB4" t="n">
-        <v>152.3186636533445</v>
+        <v>209.0816092534141</v>
       </c>
       <c r="AC4" t="n">
-        <v>137.781584174898</v>
+        <v>189.1271539142096</v>
       </c>
       <c r="AD4" t="n">
-        <v>111324.186797916</v>
+        <v>152810.1649940214</v>
       </c>
       <c r="AE4" t="n">
-        <v>152318.6636533445</v>
+        <v>209081.6092534141</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.312606129132408e-06</v>
+        <v>4.893980708938693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.674479166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>137781.584174898</v>
+        <v>189127.1539142096</v>
       </c>
     </row>
   </sheetData>
@@ -13247,28 +13247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.5452478852856</v>
+        <v>214.8044857840964</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.7698232636667</v>
+        <v>293.9049739547591</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.4135453943661</v>
+        <v>265.8550957388252</v>
       </c>
       <c r="AD2" t="n">
-        <v>163545.2478852856</v>
+        <v>214804.4857840964</v>
       </c>
       <c r="AE2" t="n">
-        <v>223769.8232636667</v>
+        <v>293904.9739547591</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.469292104769977e-06</v>
+        <v>3.585829485083822e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.51302083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>202413.5453943661</v>
+        <v>265855.0957388252</v>
       </c>
     </row>
     <row r="3">
@@ -13353,28 +13353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.7125328588256</v>
+        <v>173.2721957163376</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.8466540873281</v>
+        <v>237.0786624087578</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.777780434139</v>
+        <v>214.452207610527</v>
       </c>
       <c r="AD3" t="n">
-        <v>130712.5328588256</v>
+        <v>173272.1957163376</v>
       </c>
       <c r="AE3" t="n">
-        <v>178846.6540873281</v>
+        <v>237078.6624087578</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.975605522649604e-06</v>
+        <v>4.321082142725739e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.37760416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>161777.780434139</v>
+        <v>214452.207610527</v>
       </c>
     </row>
     <row r="4">
@@ -13459,28 +13459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>117.1041051242451</v>
+        <v>159.7490193277777</v>
       </c>
       <c r="AB4" t="n">
-        <v>160.2270028994241</v>
+        <v>218.5756558735031</v>
       </c>
       <c r="AC4" t="n">
-        <v>144.9351626227581</v>
+        <v>197.7151020498584</v>
       </c>
       <c r="AD4" t="n">
-        <v>117104.1051242451</v>
+        <v>159749.0193277777</v>
       </c>
       <c r="AE4" t="n">
-        <v>160227.0028994241</v>
+        <v>218575.6558735031</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.141648424521007e-06</v>
+        <v>4.562204500088488e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.830729166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>144935.1626227581</v>
+        <v>197715.1020498584</v>
       </c>
     </row>
     <row r="5">
@@ -13565,28 +13565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>116.9931504164778</v>
+        <v>159.6380646200104</v>
       </c>
       <c r="AB5" t="n">
-        <v>160.0751897732808</v>
+        <v>218.4238427473597</v>
       </c>
       <c r="AC5" t="n">
-        <v>144.7978383283028</v>
+        <v>197.577777755403</v>
       </c>
       <c r="AD5" t="n">
-        <v>116993.1504164778</v>
+        <v>159638.0646200104</v>
       </c>
       <c r="AE5" t="n">
-        <v>160075.1897732808</v>
+        <v>218423.8427473597</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.141648424521007e-06</v>
+        <v>4.562204500088488e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.830729166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>144797.8383283028</v>
+        <v>197577.777755403</v>
       </c>
     </row>
   </sheetData>
@@ -13862,28 +13862,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.0272382611838</v>
+        <v>154.6359707367293</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.2806096818285</v>
+        <v>211.5797572194503</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.6517234245235</v>
+        <v>191.3868821445407</v>
       </c>
       <c r="AD2" t="n">
-        <v>112027.2382611838</v>
+        <v>154635.9707367293</v>
       </c>
       <c r="AE2" t="n">
-        <v>153280.6096818285</v>
+        <v>211579.7572194503</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.268065804218516e-06</v>
+        <v>5.447670987403116e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.1484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>138651.7234245235</v>
+        <v>191386.8821445407</v>
       </c>
     </row>
   </sheetData>
@@ -14159,28 +14159,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.68717210039</v>
+        <v>144.3998769794689</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.2376073397707</v>
+        <v>197.5742821561883</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.5672111305462</v>
+        <v>178.7180699645043</v>
       </c>
       <c r="AD2" t="n">
-        <v>104687.17210039</v>
+        <v>144399.8769794689</v>
       </c>
       <c r="AE2" t="n">
-        <v>143237.6073397707</v>
+        <v>197574.2821561883</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.468956879859028e-06</v>
+        <v>5.279428445924997e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.8046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>129567.2111305462</v>
+        <v>178718.0699645043</v>
       </c>
     </row>
     <row r="3">
@@ -14265,28 +14265,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.5120366285075</v>
+        <v>143.2247415075863</v>
       </c>
       <c r="AB3" t="n">
-        <v>141.6297351438236</v>
+        <v>195.9664099602413</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.112792000317</v>
+        <v>177.2636508342752</v>
       </c>
       <c r="AD3" t="n">
-        <v>103512.0366285075</v>
+        <v>143224.7415075863</v>
       </c>
       <c r="AE3" t="n">
-        <v>141629.7351438236</v>
+        <v>195966.4099602413</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.543317051587749e-06</v>
+        <v>5.392597683671311e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.596354166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>128112.792000317</v>
+        <v>177263.6508342751</v>
       </c>
     </row>
   </sheetData>
@@ -14562,28 +14562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.7960946456081</v>
+        <v>172.7080807092229</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.3832781922898</v>
+        <v>236.3068153690261</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.2175758525887</v>
+        <v>213.754024568973</v>
       </c>
       <c r="AD2" t="n">
-        <v>123796.0946456081</v>
+        <v>172708.0807092229</v>
       </c>
       <c r="AE2" t="n">
-        <v>169383.2781922898</v>
+        <v>236306.8153690262</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.06974083043636e-06</v>
+        <v>4.582848913632429e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.6640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>153217.5758525887</v>
+        <v>213754.024568973</v>
       </c>
     </row>
     <row r="3">
@@ -14668,28 +14668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.0692005239992</v>
+        <v>148.9003062891545</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.8650478335141</v>
+        <v>203.7319680826257</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.7530151982217</v>
+        <v>184.288074988491</v>
       </c>
       <c r="AD3" t="n">
-        <v>108069.2005239992</v>
+        <v>148900.3062891545</v>
       </c>
       <c r="AE3" t="n">
-        <v>147865.0478335141</v>
+        <v>203731.9680826257</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.418020448541674e-06</v>
+        <v>5.102799280011523e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>133753.0151982217</v>
+        <v>184288.074988491</v>
       </c>
     </row>
   </sheetData>
